--- a/KEngine.UnityProject/Product/SettingSource/Subdir/Example2.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Subdir/Example2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>Id</t>
   </si>
@@ -58,6 +58,9 @@
     <t>#B</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -76,21 +79,12 @@
     <t>CommentB井号注释列</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Test1</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Test2</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>中文</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>注释行</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
   <si>
     <t>一个单词</t>
@@ -117,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -141,76 +132,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -221,15 +147,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -238,33 +256,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -281,85 +272,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,8 +410,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,7 +420,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,6 +436,45 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,30 +496,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -498,21 +504,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -521,10 +512,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,133 +524,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1147,7 +1138,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1177,73 +1168,73 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>10</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>14</v>
+      <c r="A6">
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>18</v>
+      <c r="A8">
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/KEngine.UnityProject/Product/SettingSource/Subdir/Example2.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Subdir/Example2.xlsx
@@ -1138,7 +1138,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
